--- a/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Good afternoon. The subcommittee will come to order.    I would like to thank our distinguished witnesses, Assistant Secretary of State Daniel Russel and Assistant Administrator for USAID Jonathan Stivers, for being here this afternoon.    We called this hearing to assess U.S. foreign assistance to East Asia and the Pacific for Fiscal Year 2016. This is a critical topic because it is clear that the future of the United States is inextricably linked with East Asia.    The region encompasses many of the greatest opportunities for our country. What remains to be seen is what shape its future will take because some of our greatest strategic challenges also come from East Asia. For example, the United States should assist in the peaceful resolution of maritime disputes and military buildup in the South China Sea or we risk tensions erupting into kinetic conflict.    The United States must engage in new trading relationship with burgeoning regional powers in Asia through the Trans-Pacific Partnership or we risk markets could remain restricted to our businesses. The United States must retain its leading role in ensuring the peaceful sharing of land, sea, air, and cyberspace or we risk paving the way for less savory alternatives, such as the dominance of authoritarian Chinese rules and norms.    As a Pacific power, the United States must seek positive outcomes for these challenges and others. We also need to balance these challenges abroad with our financial constraints at home, which will require allocating U.S. funds efficiently and effectively.    The administration initially proposed a rebalanced Asia as a centerpiece of its foreign policy. However, the follow-through we have seen on the rebalance or the pivot has not reached its full potential. Last week I spoke at an event with Senator McCain, and he observed that we had not yet truly pivoted. I agree.    The attention given to East Asia and the Pacific by the administration does not seem to be indicative of a concerted effort. In Fiscal Year 2015, the East Asia Bureau's budget is the second smallest of any of the State's regional bureaus.    If we are ever to truly rebalance, the effective allocation of foreign aid for the region, rather than the sheer amount we spend, must be the critical factor for our foreign aid spending in the Asia Pacific. I am eager to hear from our distinguished witnesses today about their respective efforts on this issue.    In China, we are supporting sustainable development, environmental conservation, and cultural preservation initiatives in Tibetan areas as well as HIV/AIDS programs, international narcotics control and law enforcement, and democracy programs. Over the last few years, we have seen reduced funding for democracy, human rights, and rule of law programs, which I am concerned about because of increased levels of repression from the Xi administration, which puts at risk our efforts in these areas. The controls and limits on the freedom of expression have indicated that the Chinese Government intends to rule by law rather than uphold the rule of law.    Moving to Southeast Asia, I have concerns about countries in the Lower Mekong region, which includes Burma. Cambodia, Laos, Thailand, and Vietnam. I see that this year's budget request for the Lower Mekong Initiative is nearly 20 percent lower than last year's. This broad initiative supports aid programs and education, the environment, health, food security, and infrastructure.    And I would be very interested to hear the reasoning behind its deemphasis in this year's budget. I am particularly interested to hear the witnesses' views on whether this reduction will constrain the U.S. presence in the Lower Mekong, especially now, in light of China's aggressive infrastructure investments in the region and the U.S.'s exploration of closer relations with nations such as Vietnam.    This year's budget requests reflect an increase and involvement with Vietnam, which is a forward-looking decision. Though our current efforts for Vietnam are still focused on disease control and development, we are also working toward the U.S.-Vietnam relationship of the future by helping to improve governance, strengthen civil society, improve human rights conditions, and to promote Vietnam's involvement in the TPP. Our aim should be continuing to support Vietnam's transformation to become a more responsible and inclusive partner. I look forward to discussing these priorities with Vietnam when I travel to the region in just a couple of weeks.    I am pleased to see that this year's budget request places significant emphasis on enhancing the defense capabilities of Indonesia, Vietnam, and the Philippines through foreign military financing as well as training in anti-terror programs. We have had longstanding and productive counterterror cooperation with Indonesia, and helping the world's largest Muslim-majority nation to deal with radicalism should continue to be a top priority. Vietnam and the Philippines, as claimants in the South China Sea, face heightened risk of state-to-state conflict due to China's aggressive island-building in disputed waters. So the security emphasis we see for these two nations in this year's request is welcome, also.    President Reagan once said, ``We can't help everyone, but we can help someone.'' Our mission here today is to hold a dialogue about which ``someones'' to help. And it is a truly exciting and daunting time to have these kinds of conversations because the East Asia Pacific presents colossal opportunities and vexing challenges. I give my sincere thanks to my colleagues today and our witnesses for joining me in this conversation today.    And I turn the time over to Mr. Lowenthal for any opening statements he might have.</t>
   </si>
   <si>
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And thank you, witnesses, for joining us today.    As you have just heard, we are at a critical junction for U.S. foreign policy in Asia. And I look forward to hearing how the United States can advance our security interests, our quality of life and our human rights, and promote human rights and democracy in the region.    With the ongoing negotiations on the Trans-Pacific Partnership, there is no better time to have an open and frank discussion about U.S. priorities in Asia. I believe that the United States can play a key positive role in Asia by promoting universal ideals of human rights.    Cambodia, a country with a long and bumpy and often winding road to democracy, can benefit greatly from the United States' assistance in building democratic institutions. In Vietnam, an autocratic, authoritarian regime must be made to improve its human rights record.    I would also like to highlight the challenges posed to the United States' security interest by the&lt;greek-l&gt;, quote, deg. ``threat multiplier of climate change and rising sea levels, which will disproportionately affect over 1 billion people who live along the coast in this region, many of whom depend upon the rivers, the estuaries, and the oceans for their livelihood.''    As the United States seeks to build international consensus to limit carbon emissions, we must also work with countries in the region to prepare for an already changing climate.    Thank you, Mr. Chair. And I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    I have been around here for about 28 years now, and I have always understood, being a Californian, that Asia plays a significant role in the well-being of the people of the United States of America. If we don't have good policy toward Japan and China and the Philippines, Vietnam, Korea, that region of the world, we will not prosper, nor will we be secure.    Those of us, as I say, in California know more about that. And I served with Ronald Reagan in the White House, and he certainly understood that. Today, however, there are serious challenges, but they are over the horizon. They have yet to come into view.    And I would suggest that the emergence of China as such a powerful entity and a China that has had absolutely no political reform--they have had lots of economic reform and they have--people say, ``Oh, no. They are having all this reform.''    No. They are not having any reform as long as they maintain that the government has total control over the political process. There are no opposition political parties there. People are not permitted to have private newspapers that criticize the government. They have hundreds of thousands of people--or 100,000 people tracking down anyone on the Internet that criticizes the basic nature of their system. And this is a monstrous threat that is just over the horizon.    Let me note for my friends who are so aggressively attacking Mr. Putin in Russia and their shortcomings in Russia, which there are many, there have been numerous reforms in Russia compared to China. Yet, we continue with a hostile attitude toward Russia and more of an open attitude toward China. So I am looking at that very closely.    And one thing that gives me heart that we will be able to confront any emerging threat in the Pacific is that Japan now is moving forward to basically step into its rightful role as a major power in the Pacific and Asia. We have had for far too long the stigma of World War II in which the Japanese were totally wrong and committed some monstrous acts, just like the Germans were totally wrong and committed monstrous acts.    But we forgave the Germans a long time ago. And we now have the Germans actually involved with peace efforts in Ukraine. They are sort of in charge of that. Well, Japan is ready to step up into that role in Asia and the Pacific. And the United States needs to have a strong partnership.    Next week we have President Abe coming to visit, to do a joint session of Congress. I think this is a good way to inaugurate a new era of relations between Japan and the United States and, hopefully, a new era of security and a new era of peace and prosperity in the Asia-Pacific region.    Thank you, Mr. Chairman, for holding this hearing today.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Just a few.    First, there is some confusion on the floor of the House as to when I will be recognized to do a special order, this being the 100th anniversary of the Armenian genocide. And so I will need to balance my responsibilities here with that special order.    With regard to these hearings, I will try to be brief, showing up late.    And I do want to point out, Mr. Russel, that I hope that you would be with others at State and the intel community, giving our subcommittee and, perhaps, the Terrorism, Nonproliferation, and Trade Subcommittee a classified briefing on the China 123 Agreement that the administration has set forth before us.    I would urge members and those staff members that have classified clearances to go see the reports and classified information on this and particularly focus on two things, first, whether China is doing a robust or even adequate job on making sure that its private and quasi-private entities are adhering to nonproliferation standards.    And, second, I urge members and those staffers with security clearance to focus on whether China is using nuclear technology which they promised would be used only for civilian purposes for military purposes. So I look forward to looking at that issue.    As to the panoply of issues that we will deal with at this hearing, I think other opening statements have covered that. There is no more important region in the world for the United States than Asia, which is why we have all chosen to serve under the leadership of our chairman on this subcommittee.    I yield back.</t>
   </si>
   <si>
@@ -97,16 +85,10 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Russel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russel. Thank you very much, Mr. Chairman, and Ranking Member Sherman, members of the subcommittee. And thank you in particular for the committee's support of our work with the East Asia-Pacific region and for the opportunity also to testify today about President Obama's Fiscal Year 2016 budget request. And I am pleased, of course, to be here with my colleague from USAID, John Stivers.    As you pointed out, Mr. Chairman, in your opening remarks, our strategy toward the region reflects the fact that the U.S., as a Pacific power and as a trading Nation, finds the Asia-Pacific region hugely consequential to our interest. It is consequential for our security, for our economy, and its importance will only grow.    Over the last 6 years, the administration's rebalance policy has established what I would call a new normal. It is a pattern of relations that is marked, first, by sustained engagement with the region by the President, by the Secretary of State, other Cabinet members in the Government and, second, marked by an unprecedented and extensive collaboration with our Asian allies, with our partners, on a full range of regional and global issues that face us.    And the results of this policy and the benefits to the people of the United States are very clear. One, we are safer. We are safer because our alliances in the region, especially with Japan and South Korea, the Philippines, and Australia, have never been stronger. And that is shown by updated defense guidelines, by increased host nation support, by rotational force agreements. And we have also built closer security relationships with other new partners and longstanding partners, like Singapore or New Zealand.    Second, our economy benefits. Since 2009, U.S. exports to East Asia are up about 23 percent and we are nearing conclusion of the Trans-Pacific Partnership, TPP, agreement. This is a trade agreement that also has unprecedented protections for workers, for the environment, and the digital economy. We welcome warmly the introduction of bipartisan, bicameral legislation for trade promotion authority, which will help us complete this agreement.    Third, Mr. Chairman, we are promoting stability in the region. Our deeper engagement with China has helped our two Governments to make progress on areas of common interest, like climate and bilateral investment, helped us to calm tensions with the military-to-military dialogue that we have established. It facilitates the exchange of ideas and of commerce by extending student visas and business visas while always standing up for human rights, standing up for international law, standing up for American workers and businesses. And throughout the region, our commitment to universal values is key to the strength of the American brand.    Fourth, I mention our work to strengthen regional institutions and organizations, like APEC, like ASEAN, like the East Asia Summit. This supports economic growth and also helps us manage complex disputes like those in the South China Sea, and our engagement with nations like Indonesia, Malaysia, Vietnam, and Burma position us to participate in the dynamic Southeast Asia area, a youthful area with a fast-growing middle class that already numbers in the hundreds of millions.    The $1.4 billion budget for East Asia and the Pacific in 2016 helps us build on these accomplishments. Our requested increase of $75.4 million, which is 6 percent over 2014, will allow us to maintain a robust presence as a preeminent trade and investment partner, a security guarantor, a champion of democracy, development in good governance.    And the $845 million for foreign assistance sustains and expands our funding for the region in areas such as regional security cooperation, inclusive economic growth and trade, democracy, regional institutions, and war legacies in Southeast Asia and the Pacific.    I would add, Mr. Chairman, that 2015 is a very big year for the U.S. in the region. We have got anniversaries, the 70th anniversary of World War II, 50th anniversary of Singapore's independence, 50th anniversary of normalization between Japan and Korea, 20 years since normalization with Vietnam. The ASEAN economic community will be launched this year, a step forward in regional integration. And four Asian leaders will visit the White House, beginning, as you mentioned, with Japanese Prime Minister Abe next week.    We have a lot to discuss. And I am happy to take your questions once my colleague has made his statement. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers.</t>
-  </si>
-  <si>
-    <t>Stivers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, thank you for the invitation to testify on the role of USAID in advancing our foreign policy goals in the East Asia and Pacific region.    It is an honor to appear here before the committee again. Having worked in the House of Representatives for almost two decades, this side of the Capitol always feels like home to me. And it is also a pleasure to be here alongside my colleague, Assistant Secretary Daniel Russel.    The President's budget request of $845.6 million for the East Asia-Pacific region represents an 8-percent increase over Fiscal Year 2014, laying the foundation for strengthening our relationships in Asia.    It is an exciting and pivotal time for U.S. policy in Asia. Hundreds of millions have been lifted out of poverty, and economic growth is strong. Yet, the region still has the bulk of the world's poor; 70 percent of the world's malnourished children; a majority of all natural disasters occur in this region; and a host of other development challenges related to governance, human rights, trafficking, and gender empowerment.    President Obama's Asia-Pacific Rebalance policy recognizes that our future is inextricably tied to this region. In Asia, we are working through three primary approaches to implement USAID's mission to end extreme poverty and promote resilient democratic societies, while also advancing our own security and prosperity.    First, we are institutionalizing USAID's new model of development, which leverages the private sector, innovation, and regional approaches to do more with less. In the last 5 years, USAID has moved from just 8 percent of its resources programmed for this model, which leverages the private sector, to 40 percent.    Second, through the Presidential initiatives on Global Health, Feed the Future, and Climate Change, USAID is helping to achieve historic results that improve health, fight disease, increase food security, and help communities manage a changing environment.    Third, USAID is promoting democratic governance and empowering reformers. Solutions to challenges will ultimately come from the people of the region, and our best chance of promoting democratic change and human rights is to empower the reformers. For this reason, this budget request includes increases in funding for democratic governance and human rights for almost every country in the region, representing the administration's desire to robustly fund such programs.    Next, I will delve deeper into select countries. In Burma, this is a pivotal year with national elections scheduled for November. At the core of our efforts is our support for civil society organizations that are working to hold the government accountable and to help those resisting discrimination and violence.    USAID is helping prepare for the elections by building the capacity of the election commission, training domestic election observers, supporting voter registration and education, and strengthening the capacity of political parties. In Rakhine State, USAID continues to support humanitarian assistance to the Rohingya population. This is a dynamic period in Burma and, as it progresses, we will be reassessing the nature of Burma's needs in close consultation with Congress.    In Cambodia, promoting democratic governance and human rights continues to be our highest priority. Civil society, while not fully respected by the government, has grown in vibrancy and strength in recent years, thanks in part to USAID assistance. In health, USAID has helped Cambodia meet its Millennium Development Goals on child and maternal mortality ahead of schedule. The country has set an ambitious goal of a zero incidence rate for HIV/AIDS by 2020. To combat human trafficking in Cambodia, technology developed by USAID partners is raising awareness of safe migration to reduce the number of victims and prevent trafficking.    Indonesia is a democratic success story, but there are major governance challenges. USAID is partnering to support the Anti-Corruption Commission, strengthen the judicial system, and promote Indonesian civil society. USAID also partners with Indonesia to protect and manage ocean and coastal resources. USAID has helped secure a commitment by the world's leading palm oil producers to transition to sustainable production that breaks the link with deforestation.    In the Philippines, our Partnership for Growth initiative promotes economic growth and good governance. It has contributed to the Philippines becoming one of the fastest growing markets for U.S. food and farm products. Since Typhoon Haiyan struck, we have strengthened our partnership to mitigate the risk and impacts of natural disasters and rebuild typhoon-affected communities. Lack of formal access to land ownership is a key cause of poverty and a driver of conflict. Land reform is a USAID priority and we continue to work to improve the regulatory environment and streamline the land registration process.    In Vietnam, USAID's Governance for Inclusive Growth program provides technical assistance to improve compliance with trade agreements, rule of law, and improve our access to Vietnam's growing market for U.S. exports. In addition, USAID is focused on addressing war legacies, health and disabilities, and has reduced susceptibility to climate change and natural disasters.    Mr. Chairman and members of the committee, the future development and growth of the East Asia and Pacific region is ever more important to our own future. I appreciate the opportunity to testify today, and I look forward to hearing your thoughts and any questions.</t>
@@ -649,11 +631,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -673,13 +653,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -701,11 +679,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -725,13 +701,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -753,11 +727,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -777,13 +749,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -805,11 +775,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -829,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -857,11 +823,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -881,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -909,11 +871,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -933,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -961,11 +919,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -985,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1013,11 +967,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1037,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1063,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1091,11 +1039,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1115,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1143,11 +1087,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1167,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1193,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1219,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1245,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1271,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1297,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1323,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1349,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1375,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1401,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1427,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1455,11 +1375,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1479,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1507,11 +1423,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1531,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1557,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1583,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1609,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1635,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1663,11 +1567,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1687,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1713,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1739,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1767,11 +1663,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1791,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1817,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1845,11 +1735,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1869,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1897,11 +1783,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1921,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1949,11 +1831,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1973,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2001,11 +1879,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2025,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2053,11 +1927,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2077,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2105,11 +1975,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Good afternoon. The subcommittee will come to order.    I would like to thank our distinguished witnesses, Assistant Secretary of State Daniel Russel and Assistant Administrator for USAID Jonathan Stivers, for being here this afternoon.    We called this hearing to assess U.S. foreign assistance to East Asia and the Pacific for Fiscal Year 2016. This is a critical topic because it is clear that the future of the United States is inextricably linked with East Asia.    The region encompasses many of the greatest opportunities for our country. What remains to be seen is what shape its future will take because some of our greatest strategic challenges also come from East Asia. For example, the United States should assist in the peaceful resolution of maritime disputes and military buildup in the South China Sea or we risk tensions erupting into kinetic conflict.    The United States must engage in new trading relationship with burgeoning regional powers in Asia through the Trans-Pacific Partnership or we risk markets could remain restricted to our businesses. The United States must retain its leading role in ensuring the peaceful sharing of land, sea, air, and cyberspace or we risk paving the way for less savory alternatives, such as the dominance of authoritarian Chinese rules and norms.    As a Pacific power, the United States must seek positive outcomes for these challenges and others. We also need to balance these challenges abroad with our financial constraints at home, which will require allocating U.S. funds efficiently and effectively.    The administration initially proposed a rebalanced Asia as a centerpiece of its foreign policy. However, the follow-through we have seen on the rebalance or the pivot has not reached its full potential. Last week I spoke at an event with Senator McCain, and he observed that we had not yet truly pivoted. I agree.    The attention given to East Asia and the Pacific by the administration does not seem to be indicative of a concerted effort. In Fiscal Year 2015, the East Asia Bureau's budget is the second smallest of any of the State's regional bureaus.    If we are ever to truly rebalance, the effective allocation of foreign aid for the region, rather than the sheer amount we spend, must be the critical factor for our foreign aid spending in the Asia Pacific. I am eager to hear from our distinguished witnesses today about their respective efforts on this issue.    In China, we are supporting sustainable development, environmental conservation, and cultural preservation initiatives in Tibetan areas as well as HIV/AIDS programs, international narcotics control and law enforcement, and democracy programs. Over the last few years, we have seen reduced funding for democracy, human rights, and rule of law programs, which I am concerned about because of increased levels of repression from the Xi administration, which puts at risk our efforts in these areas. The controls and limits on the freedom of expression have indicated that the Chinese Government intends to rule by law rather than uphold the rule of law.    Moving to Southeast Asia, I have concerns about countries in the Lower Mekong region, which includes Burma. Cambodia, Laos, Thailand, and Vietnam. I see that this year's budget request for the Lower Mekong Initiative is nearly 20 percent lower than last year's. This broad initiative supports aid programs and education, the environment, health, food security, and infrastructure.    And I would be very interested to hear the reasoning behind its deemphasis in this year's budget. I am particularly interested to hear the witnesses' views on whether this reduction will constrain the U.S. presence in the Lower Mekong, especially now, in light of China's aggressive infrastructure investments in the region and the U.S.'s exploration of closer relations with nations such as Vietnam.    This year's budget requests reflect an increase and involvement with Vietnam, which is a forward-looking decision. Though our current efforts for Vietnam are still focused on disease control and development, we are also working toward the U.S.-Vietnam relationship of the future by helping to improve governance, strengthen civil society, improve human rights conditions, and to promote Vietnam's involvement in the TPP. Our aim should be continuing to support Vietnam's transformation to become a more responsible and inclusive partner. I look forward to discussing these priorities with Vietnam when I travel to the region in just a couple of weeks.    I am pleased to see that this year's budget request places significant emphasis on enhancing the defense capabilities of Indonesia, Vietnam, and the Philippines through foreign military financing as well as training in anti-terror programs. We have had longstanding and productive counterterror cooperation with Indonesia, and helping the world's largest Muslim-majority nation to deal with radicalism should continue to be a top priority. Vietnam and the Philippines, as claimants in the South China Sea, face heightened risk of state-to-state conflict due to China's aggressive island-building in disputed waters. So the security emphasis we see for these two nations in this year's request is welcome, also.    President Reagan once said, ``We can't help everyone, but we can help someone.'' Our mission here today is to hold a dialogue about which ``someones'' to help. And it is a truly exciting and daunting time to have these kinds of conversations because the East Asia Pacific presents colossal opportunities and vexing challenges. I give my sincere thanks to my colleagues today and our witnesses for joining me in this conversation today.    And I turn the time over to Mr. Lowenthal for any opening statements he might have.</t>
   </si>
   <si>
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chairman.    And thank you, witnesses, for joining us today.    As you have just heard, we are at a critical junction for U.S. foreign policy in Asia. And I look forward to hearing how the United States can advance our security interests, our quality of life and our human rights, and promote human rights and democracy in the region.    With the ongoing negotiations on the Trans-Pacific Partnership, there is no better time to have an open and frank discussion about U.S. priorities in Asia. I believe that the United States can play a key positive role in Asia by promoting universal ideals of human rights.    Cambodia, a country with a long and bumpy and often winding road to democracy, can benefit greatly from the United States' assistance in building democratic institutions. In Vietnam, an autocratic, authoritarian regime must be made to improve its human rights record.    I would also like to highlight the challenges posed to the United States' security interest by the&lt;greek-l&gt;, quote, deg. ``threat multiplier of climate change and rising sea levels, which will disproportionately affect over 1 billion people who live along the coast in this region, many of whom depend upon the rivers, the estuaries, and the oceans for their livelihood.''    As the United States seeks to build international consensus to limit carbon emissions, we must also work with countries in the region to prepare for an already changing climate.    Thank you, Mr. Chair. And I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman.    I have been around here for about 28 years now, and I have always understood, being a Californian, that Asia plays a significant role in the well-being of the people of the United States of America. If we don't have good policy toward Japan and China and the Philippines, Vietnam, Korea, that region of the world, we will not prosper, nor will we be secure.    Those of us, as I say, in California know more about that. And I served with Ronald Reagan in the White House, and he certainly understood that. Today, however, there are serious challenges, but they are over the horizon. They have yet to come into view.    And I would suggest that the emergence of China as such a powerful entity and a China that has had absolutely no political reform--they have had lots of economic reform and they have--people say, ``Oh, no. They are having all this reform.''    No. They are not having any reform as long as they maintain that the government has total control over the political process. There are no opposition political parties there. People are not permitted to have private newspapers that criticize the government. They have hundreds of thousands of people--or 100,000 people tracking down anyone on the Internet that criticizes the basic nature of their system. And this is a monstrous threat that is just over the horizon.    Let me note for my friends who are so aggressively attacking Mr. Putin in Russia and their shortcomings in Russia, which there are many, there have been numerous reforms in Russia compared to China. Yet, we continue with a hostile attitude toward Russia and more of an open attitude toward China. So I am looking at that very closely.    And one thing that gives me heart that we will be able to confront any emerging threat in the Pacific is that Japan now is moving forward to basically step into its rightful role as a major power in the Pacific and Asia. We have had for far too long the stigma of World War II in which the Japanese were totally wrong and committed some monstrous acts, just like the Germans were totally wrong and committed monstrous acts.    But we forgave the Germans a long time ago. And we now have the Germans actually involved with peace efforts in Ukraine. They are sort of in charge of that. Well, Japan is ready to step up into that role in Asia and the Pacific. And the United States needs to have a strong partnership.    Next week we have President Abe coming to visit, to do a joint session of Congress. I think this is a good way to inaugurate a new era of relations between Japan and the United States and, hopefully, a new era of security and a new era of peace and prosperity in the Asia-Pacific region.    Thank you, Mr. Chairman, for holding this hearing today.</t>
   </si>
   <si>
@@ -76,6 +97,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Just a few.    First, there is some confusion on the floor of the House as to when I will be recognized to do a special order, this being the 100th anniversary of the Armenian genocide. And so I will need to balance my responsibilities here with that special order.    With regard to these hearings, I will try to be brief, showing up late.    And I do want to point out, Mr. Russel, that I hope that you would be with others at State and the intel community, giving our subcommittee and, perhaps, the Terrorism, Nonproliferation, and Trade Subcommittee a classified briefing on the China 123 Agreement that the administration has set forth before us.    I would urge members and those staff members that have classified clearances to go see the reports and classified information on this and particularly focus on two things, first, whether China is doing a robust or even adequate job on making sure that its private and quasi-private entities are adhering to nonproliferation standards.    And, second, I urge members and those staffers with security clearance to focus on whether China is using nuclear technology which they promised would be used only for civilian purposes for military purposes. So I look forward to looking at that issue.    As to the panoply of issues that we will deal with at this hearing, I think other opening statements have covered that. There is no more important region in the world for the United States than Asia, which is why we have all chosen to serve under the leadership of our chairman on this subcommittee.    I yield back.</t>
   </si>
   <si>
@@ -85,10 +112,16 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Russel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russel. Thank you very much, Mr. Chairman, and Ranking Member Sherman, members of the subcommittee. And thank you in particular for the committee's support of our work with the East Asia-Pacific region and for the opportunity also to testify today about President Obama's Fiscal Year 2016 budget request. And I am pleased, of course, to be here with my colleague from USAID, John Stivers.    As you pointed out, Mr. Chairman, in your opening remarks, our strategy toward the region reflects the fact that the U.S., as a Pacific power and as a trading Nation, finds the Asia-Pacific region hugely consequential to our interest. It is consequential for our security, for our economy, and its importance will only grow.    Over the last 6 years, the administration's rebalance policy has established what I would call a new normal. It is a pattern of relations that is marked, first, by sustained engagement with the region by the President, by the Secretary of State, other Cabinet members in the Government and, second, marked by an unprecedented and extensive collaboration with our Asian allies, with our partners, on a full range of regional and global issues that face us.    And the results of this policy and the benefits to the people of the United States are very clear. One, we are safer. We are safer because our alliances in the region, especially with Japan and South Korea, the Philippines, and Australia, have never been stronger. And that is shown by updated defense guidelines, by increased host nation support, by rotational force agreements. And we have also built closer security relationships with other new partners and longstanding partners, like Singapore or New Zealand.    Second, our economy benefits. Since 2009, U.S. exports to East Asia are up about 23 percent and we are nearing conclusion of the Trans-Pacific Partnership, TPP, agreement. This is a trade agreement that also has unprecedented protections for workers, for the environment, and the digital economy. We welcome warmly the introduction of bipartisan, bicameral legislation for trade promotion authority, which will help us complete this agreement.    Third, Mr. Chairman, we are promoting stability in the region. Our deeper engagement with China has helped our two Governments to make progress on areas of common interest, like climate and bilateral investment, helped us to calm tensions with the military-to-military dialogue that we have established. It facilitates the exchange of ideas and of commerce by extending student visas and business visas while always standing up for human rights, standing up for international law, standing up for American workers and businesses. And throughout the region, our commitment to universal values is key to the strength of the American brand.    Fourth, I mention our work to strengthen regional institutions and organizations, like APEC, like ASEAN, like the East Asia Summit. This supports economic growth and also helps us manage complex disputes like those in the South China Sea, and our engagement with nations like Indonesia, Malaysia, Vietnam, and Burma position us to participate in the dynamic Southeast Asia area, a youthful area with a fast-growing middle class that already numbers in the hundreds of millions.    The $1.4 billion budget for East Asia and the Pacific in 2016 helps us build on these accomplishments. Our requested increase of $75.4 million, which is 6 percent over 2014, will allow us to maintain a robust presence as a preeminent trade and investment partner, a security guarantor, a champion of democracy, development in good governance.    And the $845 million for foreign assistance sustains and expands our funding for the region in areas such as regional security cooperation, inclusive economic growth and trade, democracy, regional institutions, and war legacies in Southeast Asia and the Pacific.    I would add, Mr. Chairman, that 2015 is a very big year for the U.S. in the region. We have got anniversaries, the 70th anniversary of World War II, 50th anniversary of Singapore's independence, 50th anniversary of normalization between Japan and Korea, 20 years since normalization with Vietnam. The ASEAN economic community will be launched this year, a step forward in regional integration. And four Asian leaders will visit the White House, beginning, as you mentioned, with Japanese Prime Minister Abe next week.    We have a lot to discuss. And I am happy to take your questions once my colleague has made his statement. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Mr. Stivers.</t>
+  </si>
+  <si>
+    <t>Stivers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Stivers. Chairman Salmon, Ranking Member Sherman, distinguished members of the subcommittee, thank you for the invitation to testify on the role of USAID in advancing our foreign policy goals in the East Asia and Pacific region.    It is an honor to appear here before the committee again. Having worked in the House of Representatives for almost two decades, this side of the Capitol always feels like home to me. And it is also a pleasure to be here alongside my colleague, Assistant Secretary Daniel Russel.    The President's budget request of $845.6 million for the East Asia-Pacific region represents an 8-percent increase over Fiscal Year 2014, laying the foundation for strengthening our relationships in Asia.    It is an exciting and pivotal time for U.S. policy in Asia. Hundreds of millions have been lifted out of poverty, and economic growth is strong. Yet, the region still has the bulk of the world's poor; 70 percent of the world's malnourished children; a majority of all natural disasters occur in this region; and a host of other development challenges related to governance, human rights, trafficking, and gender empowerment.    President Obama's Asia-Pacific Rebalance policy recognizes that our future is inextricably tied to this region. In Asia, we are working through three primary approaches to implement USAID's mission to end extreme poverty and promote resilient democratic societies, while also advancing our own security and prosperity.    First, we are institutionalizing USAID's new model of development, which leverages the private sector, innovation, and regional approaches to do more with less. In the last 5 years, USAID has moved from just 8 percent of its resources programmed for this model, which leverages the private sector, to 40 percent.    Second, through the Presidential initiatives on Global Health, Feed the Future, and Climate Change, USAID is helping to achieve historic results that improve health, fight disease, increase food security, and help communities manage a changing environment.    Third, USAID is promoting democratic governance and empowering reformers. Solutions to challenges will ultimately come from the people of the region, and our best chance of promoting democratic change and human rights is to empower the reformers. For this reason, this budget request includes increases in funding for democratic governance and human rights for almost every country in the region, representing the administration's desire to robustly fund such programs.    Next, I will delve deeper into select countries. In Burma, this is a pivotal year with national elections scheduled for November. At the core of our efforts is our support for civil society organizations that are working to hold the government accountable and to help those resisting discrimination and violence.    USAID is helping prepare for the elections by building the capacity of the election commission, training domestic election observers, supporting voter registration and education, and strengthening the capacity of political parties. In Rakhine State, USAID continues to support humanitarian assistance to the Rohingya population. This is a dynamic period in Burma and, as it progresses, we will be reassessing the nature of Burma's needs in close consultation with Congress.    In Cambodia, promoting democratic governance and human rights continues to be our highest priority. Civil society, while not fully respected by the government, has grown in vibrancy and strength in recent years, thanks in part to USAID assistance. In health, USAID has helped Cambodia meet its Millennium Development Goals on child and maternal mortality ahead of schedule. The country has set an ambitious goal of a zero incidence rate for HIV/AIDS by 2020. To combat human trafficking in Cambodia, technology developed by USAID partners is raising awareness of safe migration to reduce the number of victims and prevent trafficking.    Indonesia is a democratic success story, but there are major governance challenges. USAID is partnering to support the Anti-Corruption Commission, strengthen the judicial system, and promote Indonesian civil society. USAID also partners with Indonesia to protect and manage ocean and coastal resources. USAID has helped secure a commitment by the world's leading palm oil producers to transition to sustainable production that breaks the link with deforestation.    In the Philippines, our Partnership for Growth initiative promotes economic growth and good governance. It has contributed to the Philippines becoming one of the fastest growing markets for U.S. food and farm products. Since Typhoon Haiyan struck, we have strengthened our partnership to mitigate the risk and impacts of natural disasters and rebuild typhoon-affected communities. Lack of formal access to land ownership is a key cause of poverty and a driver of conflict. Land reform is a USAID priority and we continue to work to improve the regulatory environment and streamline the land registration process.    In Vietnam, USAID's Governance for Inclusive Growth program provides technical assistance to improve compliance with trade agreements, rule of law, and improve our access to Vietnam's growing market for U.S. exports. In addition, USAID is focused on addressing war legacies, health and disabilities, and has reduced susceptibility to climate change and natural disasters.    Mr. Chairman and members of the committee, the future development and growth of the East Asia and Pacific region is ever more important to our own future. I appreciate the opportunity to testify today, and I look forward to hearing your thoughts and any questions.</t>
@@ -581,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,1373 +644,1617 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Lowenthal</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t>400371</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Sherman</t>
@@ -614,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,1614 +659,1744 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
         <v>35</v>
       </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
